--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.6094770628072</v>
+        <v>21.90961833333333</v>
       </c>
       <c r="H2">
-        <v>21.6094770628072</v>
+        <v>65.728855</v>
       </c>
       <c r="I2">
-        <v>0.6522696435773945</v>
+        <v>0.6422049224355262</v>
       </c>
       <c r="J2">
-        <v>0.6522696435773945</v>
+        <v>0.6422049224355262</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.2862375479292</v>
+        <v>13.51863466666667</v>
       </c>
       <c r="N2">
-        <v>13.2862375479292</v>
+        <v>40.555904</v>
       </c>
       <c r="O2">
-        <v>0.5358605993709608</v>
+        <v>0.5370474071126665</v>
       </c>
       <c r="P2">
-        <v>0.5358605993709608</v>
+        <v>0.5370474071126665</v>
       </c>
       <c r="Q2">
-        <v>287.1086455429839</v>
+        <v>296.1881259344355</v>
       </c>
       <c r="R2">
-        <v>287.1086455429839</v>
+        <v>2665.69313340992</v>
       </c>
       <c r="S2">
-        <v>0.3495256021588655</v>
+        <v>0.3448944884289905</v>
       </c>
       <c r="T2">
-        <v>0.3495256021588655</v>
+        <v>0.3448944884289905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.6094770628072</v>
+        <v>21.90961833333333</v>
       </c>
       <c r="H3">
-        <v>21.6094770628072</v>
+        <v>65.728855</v>
       </c>
       <c r="I3">
-        <v>0.6522696435773945</v>
+        <v>0.6422049224355262</v>
       </c>
       <c r="J3">
-        <v>0.6522696435773945</v>
+        <v>0.6422049224355262</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2752638779016</v>
+        <v>11.419192</v>
       </c>
       <c r="N3">
-        <v>11.2752638779016</v>
+        <v>34.257576</v>
       </c>
       <c r="O3">
-        <v>0.4547539992328226</v>
+        <v>0.4536439963159277</v>
       </c>
       <c r="P3">
-        <v>0.4547539992328226</v>
+        <v>0.4536439963159277</v>
       </c>
       <c r="Q3">
-        <v>243.6525561466132</v>
+        <v>250.1901383950533</v>
       </c>
       <c r="R3">
-        <v>243.6525561466132</v>
+        <v>2251.71124555548</v>
       </c>
       <c r="S3">
-        <v>0.2966222289949879</v>
+        <v>0.2913324074674125</v>
       </c>
       <c r="T3">
-        <v>0.2966222289949879</v>
+        <v>0.2913324074674125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.6094770628072</v>
+        <v>21.90961833333333</v>
       </c>
       <c r="H4">
-        <v>21.6094770628072</v>
+        <v>65.728855</v>
       </c>
       <c r="I4">
-        <v>0.6522696435773945</v>
+        <v>0.6422049224355262</v>
       </c>
       <c r="J4">
-        <v>0.6522696435773945</v>
+        <v>0.6422049224355262</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.232703566149819</v>
+        <v>0.2343173333333333</v>
       </c>
       <c r="N4">
-        <v>0.232703566149819</v>
+        <v>0.702952</v>
       </c>
       <c r="O4">
-        <v>0.009385401396216742</v>
+        <v>0.00930859657140581</v>
       </c>
       <c r="P4">
-        <v>0.009385401396216742</v>
+        <v>0.00930859657140581</v>
       </c>
       <c r="Q4">
-        <v>5.028602375147952</v>
+        <v>5.133803342217777</v>
       </c>
       <c r="R4">
-        <v>5.028602375147952</v>
+        <v>46.20423007996</v>
       </c>
       <c r="S4">
-        <v>0.006121812423541075</v>
+        <v>0.005978026539123274</v>
       </c>
       <c r="T4">
-        <v>0.006121812423541075</v>
+        <v>0.005978026539123274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.7062918672976</v>
+        <v>10.79980633333333</v>
       </c>
       <c r="H5">
-        <v>10.7062918672976</v>
+        <v>32.399419</v>
       </c>
       <c r="I5">
-        <v>0.3231632658217865</v>
+        <v>0.3165590875704608</v>
       </c>
       <c r="J5">
-        <v>0.3231632658217865</v>
+        <v>0.3165590875704607</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2862375479292</v>
+        <v>13.51863466666667</v>
       </c>
       <c r="N5">
-        <v>13.2862375479292</v>
+        <v>40.555904</v>
       </c>
       <c r="O5">
-        <v>0.5358605993709608</v>
+        <v>0.5370474071126665</v>
       </c>
       <c r="P5">
-        <v>0.5358605993709608</v>
+        <v>0.5370474071126665</v>
       </c>
       <c r="Q5">
-        <v>142.2463370063784</v>
+        <v>145.9986362910862</v>
       </c>
       <c r="R5">
-        <v>142.2463370063784</v>
+        <v>1313.987726619776</v>
       </c>
       <c r="S5">
-        <v>0.1731704613179396</v>
+        <v>0.1700072371776675</v>
       </c>
       <c r="T5">
-        <v>0.1731704613179396</v>
+        <v>0.1700072371776675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7062918672976</v>
+        <v>10.79980633333333</v>
       </c>
       <c r="H6">
-        <v>10.7062918672976</v>
+        <v>32.399419</v>
       </c>
       <c r="I6">
-        <v>0.3231632658217865</v>
+        <v>0.3165590875704608</v>
       </c>
       <c r="J6">
-        <v>0.3231632658217865</v>
+        <v>0.3165590875704607</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.2752638779016</v>
+        <v>11.419192</v>
       </c>
       <c r="N6">
-        <v>11.2752638779016</v>
+        <v>34.257576</v>
       </c>
       <c r="O6">
-        <v>0.4547539992328226</v>
+        <v>0.4536439963159277</v>
       </c>
       <c r="P6">
-        <v>0.4547539992328226</v>
+        <v>0.4536439963159277</v>
       </c>
       <c r="Q6">
-        <v>120.7162659576123</v>
+        <v>123.3250620831493</v>
       </c>
       <c r="R6">
-        <v>120.7162659576123</v>
+        <v>1109.925558748344</v>
       </c>
       <c r="S6">
-        <v>0.1469597875375971</v>
+        <v>0.1436051295555875</v>
       </c>
       <c r="T6">
-        <v>0.1469597875375971</v>
+        <v>0.1436051295555875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7062918672976</v>
+        <v>10.79980633333333</v>
       </c>
       <c r="H7">
-        <v>10.7062918672976</v>
+        <v>32.399419</v>
       </c>
       <c r="I7">
-        <v>0.3231632658217865</v>
+        <v>0.3165590875704608</v>
       </c>
       <c r="J7">
-        <v>0.3231632658217865</v>
+        <v>0.3165590875704607</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.232703566149819</v>
+        <v>0.2343173333333333</v>
       </c>
       <c r="N7">
-        <v>0.232703566149819</v>
+        <v>0.702952</v>
       </c>
       <c r="O7">
-        <v>0.009385401396216742</v>
+        <v>0.00930859657140581</v>
       </c>
       <c r="P7">
-        <v>0.009385401396216742</v>
+        <v>0.00930859657140581</v>
       </c>
       <c r="Q7">
-        <v>2.491392297760956</v>
+        <v>2.530581820543111</v>
       </c>
       <c r="R7">
-        <v>2.491392297760956</v>
+        <v>22.775236384888</v>
       </c>
       <c r="S7">
-        <v>0.003033016966249757</v>
+        <v>0.002946720837205743</v>
       </c>
       <c r="T7">
-        <v>0.003033016966249757</v>
+        <v>0.002946720837205742</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.81389956755716</v>
+        <v>1.406817</v>
       </c>
       <c r="H8">
-        <v>0.81389956755716</v>
+        <v>4.220451</v>
       </c>
       <c r="I8">
-        <v>0.02456709060081898</v>
+        <v>0.04123598999401312</v>
       </c>
       <c r="J8">
-        <v>0.02456709060081898</v>
+        <v>0.04123598999401312</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.2862375479292</v>
+        <v>13.51863466666667</v>
       </c>
       <c r="N8">
-        <v>13.2862375479292</v>
+        <v>40.555904</v>
       </c>
       <c r="O8">
-        <v>0.5358605993709608</v>
+        <v>0.5370474071126665</v>
       </c>
       <c r="P8">
-        <v>0.5358605993709608</v>
+        <v>0.5370474071126665</v>
       </c>
       <c r="Q8">
-        <v>10.81366299472128</v>
+        <v>19.018245065856</v>
       </c>
       <c r="R8">
-        <v>10.81366299472128</v>
+        <v>171.164205592704</v>
       </c>
       <c r="S8">
-        <v>0.01316453589415556</v>
+        <v>0.02214568150600861</v>
       </c>
       <c r="T8">
-        <v>0.01316453589415556</v>
+        <v>0.0221456815060086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.81389956755716</v>
+        <v>1.406817</v>
       </c>
       <c r="H9">
-        <v>0.81389956755716</v>
+        <v>4.220451</v>
       </c>
       <c r="I9">
-        <v>0.02456709060081898</v>
+        <v>0.04123598999401312</v>
       </c>
       <c r="J9">
-        <v>0.02456709060081898</v>
+        <v>0.04123598999401312</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.2752638779016</v>
+        <v>11.419192</v>
       </c>
       <c r="N9">
-        <v>11.2752638779016</v>
+        <v>34.257576</v>
       </c>
       <c r="O9">
-        <v>0.4547539992328226</v>
+        <v>0.4536439963159277</v>
       </c>
       <c r="P9">
-        <v>0.4547539992328226</v>
+        <v>0.4536439963159277</v>
       </c>
       <c r="Q9">
-        <v>9.176932394316978</v>
+        <v>16.064713431864</v>
       </c>
       <c r="R9">
-        <v>9.176932394316978</v>
+        <v>144.582420886776</v>
       </c>
       <c r="S9">
-        <v>0.01117198270023752</v>
+        <v>0.01870645929292772</v>
       </c>
       <c r="T9">
-        <v>0.01117198270023752</v>
+        <v>0.01870645929292772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.81389956755716</v>
+        <v>1.406817</v>
       </c>
       <c r="H10">
-        <v>0.81389956755716</v>
+        <v>4.220451</v>
       </c>
       <c r="I10">
-        <v>0.02456709060081898</v>
+        <v>0.04123598999401312</v>
       </c>
       <c r="J10">
-        <v>0.02456709060081898</v>
+        <v>0.04123598999401312</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.232703566149819</v>
+        <v>0.2343173333333333</v>
       </c>
       <c r="N10">
-        <v>0.232703566149819</v>
+        <v>0.702952</v>
       </c>
       <c r="O10">
-        <v>0.009385401396216742</v>
+        <v>0.00930859657140581</v>
       </c>
       <c r="P10">
-        <v>0.009385401396216742</v>
+        <v>0.00930859657140581</v>
       </c>
       <c r="Q10">
-        <v>0.1893973318583466</v>
+        <v>0.329641607928</v>
       </c>
       <c r="R10">
-        <v>0.1893973318583466</v>
+        <v>2.966774471352</v>
       </c>
       <c r="S10">
-        <v>0.0002305720064259097</v>
+        <v>0.0003838491950767949</v>
       </c>
       <c r="T10">
-        <v>0.0002305720064259097</v>
+        <v>0.0003838491950767948</v>
       </c>
     </row>
   </sheetData>
